--- a/docs/Agile Artifacts/Sprint Backlog/USFoodRecall_Sprint_Backlog.xlsx
+++ b/docs/Agile Artifacts/Sprint Backlog/USFoodRecall_Sprint_Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balaji.chode.UBTUS\Documents\GSA18FRFQ\docs\Agile Artifacts\Sprint Backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\balaji.chode.UBTUS\Documents\USFoodRecall\docs\Agile Artifacts\Sprint Backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -654,11 +654,12 @@
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E11:E12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/docs/Agile Artifacts/Sprint Backlog/USFoodRecall_Sprint_Backlog.xlsx
+++ b/docs/Agile Artifacts/Sprint Backlog/USFoodRecall_Sprint_Backlog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="115">
   <si>
     <t>User Story</t>
   </si>
@@ -303,6 +303,72 @@
   </si>
   <si>
     <t>T00053</t>
+  </si>
+  <si>
+    <t>US013</t>
+  </si>
+  <si>
+    <t>T00054</t>
+  </si>
+  <si>
+    <t>T00055</t>
+  </si>
+  <si>
+    <t>T00056</t>
+  </si>
+  <si>
+    <t>T00057</t>
+  </si>
+  <si>
+    <t>US014</t>
+  </si>
+  <si>
+    <t>T00058</t>
+  </si>
+  <si>
+    <t>T00059</t>
+  </si>
+  <si>
+    <t>T00060</t>
+  </si>
+  <si>
+    <t>Setup google forms</t>
+  </si>
+  <si>
+    <t>Embed form on site.</t>
+  </si>
+  <si>
+    <t>Test and review code.</t>
+  </si>
+  <si>
+    <t>Sprint Number</t>
+  </si>
+  <si>
+    <t>Assigned Person</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Balaji</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Jeet</t>
+  </si>
+  <si>
+    <t>Closed</t>
   </si>
 </sst>
 </file>
@@ -340,7 +406,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -363,14 +429,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,19 +730,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="95" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,8 +756,23 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -684,8 +782,23 @@
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G2" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -693,8 +806,23 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G3" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -702,8 +830,23 @@
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -711,8 +854,23 @@
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G5" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>12</v>
@@ -720,8 +878,23 @@
       <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
         <v>14</v>
@@ -729,8 +902,23 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G7" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>16</v>
@@ -738,8 +926,23 @@
       <c r="C8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G8" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -747,8 +950,23 @@
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42173</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42178</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
@@ -758,8 +976,23 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -767,8 +1000,23 @@
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2" t="s">
         <v>25</v>
@@ -776,8 +1024,23 @@
       <c r="C12" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F12" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G12" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>27</v>
@@ -785,8 +1048,23 @@
       <c r="C13" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G13" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -796,8 +1074,23 @@
       <c r="C14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G14" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2" t="s">
         <v>32</v>
@@ -805,8 +1098,23 @@
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G15" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -814,8 +1122,23 @@
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G16" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2" t="s">
         <v>34</v>
@@ -823,8 +1146,23 @@
       <c r="C17" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G17" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -834,8 +1172,23 @@
       <c r="C18" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G18" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
         <v>38</v>
@@ -843,8 +1196,23 @@
       <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G19" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2" t="s">
         <v>40</v>
@@ -852,8 +1220,23 @@
       <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G20" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2" t="s">
         <v>41</v>
@@ -861,8 +1244,23 @@
       <c r="C21" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G21" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -872,8 +1270,23 @@
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G22" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2" t="s">
         <v>45</v>
@@ -881,8 +1294,23 @@
       <c r="C23" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="F23" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G23" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
         <v>47</v>
@@ -890,8 +1318,23 @@
       <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G24" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2" t="s">
         <v>48</v>
@@ -899,8 +1342,23 @@
       <c r="C25" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G25" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -910,8 +1368,23 @@
       <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G26" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>52</v>
@@ -919,8 +1392,23 @@
       <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G27" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
         <v>54</v>
@@ -928,8 +1416,23 @@
       <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G28" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
         <v>55</v>
@@ -937,8 +1440,23 @@
       <c r="C29" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G29" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -948,8 +1466,23 @@
       <c r="C30" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G30" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2" t="s">
         <v>59</v>
@@ -957,8 +1490,23 @@
       <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>112</v>
+      </c>
+      <c r="F31" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G31" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2" t="s">
         <v>61</v>
@@ -966,8 +1514,23 @@
       <c r="C32" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G32" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2" t="s">
         <v>62</v>
@@ -975,8 +1538,23 @@
       <c r="C33" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="4">
+        <v>42178</v>
+      </c>
+      <c r="G33" s="4">
+        <v>42179</v>
+      </c>
+      <c r="H33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -986,8 +1564,23 @@
       <c r="C34" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G34" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2" t="s">
         <v>66</v>
@@ -995,8 +1588,23 @@
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G35" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2" t="s">
         <v>67</v>
@@ -1004,8 +1612,23 @@
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G36" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2" t="s">
         <v>68</v>
@@ -1013,8 +1636,23 @@
       <c r="C37" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G37" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
@@ -1024,8 +1662,23 @@
       <c r="C38" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G38" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2" t="s">
         <v>71</v>
@@ -1033,8 +1686,23 @@
       <c r="C39" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G39" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>72</v>
@@ -1042,8 +1710,23 @@
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G40" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>73</v>
@@ -1051,8 +1734,23 @@
       <c r="C41" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G41" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>74</v>
       </c>
@@ -1062,8 +1760,23 @@
       <c r="C42" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>111</v>
+      </c>
+      <c r="F42" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G42" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>76</v>
@@ -1071,8 +1784,23 @@
       <c r="C43" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>112</v>
+      </c>
+      <c r="F43" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G43" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2" t="s">
         <v>77</v>
@@ -1080,8 +1808,23 @@
       <c r="C44" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G44" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H44" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2" t="s">
         <v>78</v>
@@ -1089,8 +1832,23 @@
       <c r="C45" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G45" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -1100,8 +1858,23 @@
       <c r="C46" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="F46" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G46" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2" t="s">
         <v>82</v>
@@ -1109,8 +1882,23 @@
       <c r="C47" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G47" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2" t="s">
         <v>84</v>
@@ -1118,8 +1906,23 @@
       <c r="C48" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G48" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2" t="s">
         <v>85</v>
@@ -1127,8 +1930,23 @@
       <c r="C49" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G49" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>86</v>
       </c>
@@ -1138,8 +1956,23 @@
       <c r="C50" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="E50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F50" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G50" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2" t="s">
         <v>89</v>
@@ -1147,8 +1980,23 @@
       <c r="C51" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>112</v>
+      </c>
+      <c r="F51" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G51" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
         <v>91</v>
@@ -1156,14 +2004,216 @@
       <c r="C52" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G52" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>28</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="4">
+        <v>42180</v>
+      </c>
+      <c r="G53" s="4">
+        <v>42184</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G54" s="4">
+        <v>42186</v>
+      </c>
+      <c r="H54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F55" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G55" s="4">
+        <v>42186</v>
+      </c>
+      <c r="H55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G56" s="4">
+        <v>42186</v>
+      </c>
+      <c r="H56" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G57" s="4">
+        <v>42186</v>
+      </c>
+      <c r="H57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G58" s="4">
+        <v>42186</v>
+      </c>
+      <c r="H58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>111</v>
+      </c>
+      <c r="F59" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G59" s="4">
+        <v>42186</v>
+      </c>
+      <c r="H59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>112</v>
+      </c>
+      <c r="F60" s="4">
+        <v>42185</v>
+      </c>
+      <c r="G60" s="4">
+        <v>42186</v>
+      </c>
+      <c r="H60" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
